--- a/similarities/split_global/harmonic_similarity_timestamps_75.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_75.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,694 +484,746 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>jaah_54</t>
+          <t>schubert-winterreise_108</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>jaah_79</t>
+          <t>schubert-winterreise_63</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['Ab:7', 'Eb', 'Bb:7', 'Eb'], ['Bb:7', 'Eb', 'Ab:7', 'Eb']]</t>
+          <t>['C:maj', 'A:min/E', 'E:7', 'A:min']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['Eb:7', 'Bb', 'F:7', 'Bb'], ['F:7', 'Bb', 'Eb:7', 'Bb']]</t>
+          <t>['D#/G', 'C:min/G', 'G:7', 'C:min']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:15.140000', '0:00:40.370000'), ('0:00:40.370000', '0:00:56.680000')]</t>
+          <t>('0:00:30.760000', '0:00:37.720000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:05.350000', '0:00:14.680000'), ('0:00:26.670000', '0:00:36.510000')]</t>
+          <t>('0:01:07.160000', '0:01:12.400000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-54#t=15.14', 'https://soundcloud.com/jacopo-de-berardinis/jaah-54#t=40.37']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-108#t=30.76</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-79#t=5.35', 'https://soundcloud.com/jacopo-de-berardinis/jaah-79#t=26.67']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-63#t=67.16</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_196</t>
+          <t>schubert-winterreise_91</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_160</t>
+          <t>schubert-winterreise_162</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['D', 'G/5', 'D']]</t>
+          <t>['D#:maj/A#', 'A#:7', 'D#:maj']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:12.707687', '0:00:25.501882')]</t>
+          <t>('0:01:19.980000', '0:01:33.600000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:01:20.420000', '0:01:24.640000')]</t>
+          <t>('0:00:23.260000', '0:00:26.800000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-196#t=12.707687']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-91#t=79.98</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-160#t=80.42']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-162#t=23.26</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_150</t>
+          <t>jaah_80</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_38</t>
+          <t>isophonics_35</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']]</t>
+          <t>['G:7', 'C:7', 'F']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['A#', 'D#:min/A#', 'A#', 'D#:min', 'A#', 'D#:min']]</t>
+          <t>['D:7', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:00.780000', '0:00:09.740000')]</t>
+          <t>('0:00:09.910000', '0:00:14')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:50.820000', '0:01:04.980000')]</t>
+          <t>('0:00:18.783807', '0:00:24.845034')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-150#t=0.78']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-80#t=9.91</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-38#t=50.82']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-35#t=18.783807</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:1dxbAIfCASqv6jix2R1Taj</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_147</t>
+          <t>jaah_14</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_103</t>
+          <t>schubert-winterreise_200</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>['Ab', 'Eb:7', 'Ab', 'Eb:7', 'Ab', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
+          <t>['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:19.780000', '0:00:29.500000')]</t>
+          <t>('0:01:06.930000', '0:01:33.270000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:00.600000', '0:00:11.320000')]</t>
+          <t>('0:00:24.280000', '0:00:51.080000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-147#t=19.78']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-14#t=66.93</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-103#t=0.6']</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-200#t=24.28</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_96</t>
+          <t>schubert-winterreise_187</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_276</t>
+          <t>schubert-winterreise_168</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:maj', 'F:maj']]</t>
+          <t>['C:min/G', 'G', 'C:min']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['G', 'D', 'G']]</t>
+          <t>['A#:min', 'F:maj', 'A#:min']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:00.740000', '0:00:21.500000')]</t>
+          <t>('0:00:14.080000', '0:00:20.540000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:09.738333', '0:00:15.380782')]</t>
+          <t>('0:00:11.700000', '0:00:20.020000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-96#t=0.74']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-187#t=14.08</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-276#t=9.738333']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-168#t=11.7</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
+          <t>schubert-winterreise_169</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_242</t>
+          <t>schubert-winterreise_129</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['C:maj/E', 'G:maj/D', 'A:min7/C']]</t>
+          <t>['C:min', 'G:min', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'A:maj6']]</t>
+          <t>['A#:min', 'F:min', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:01:11.400000', '0:01:14.700000')]</t>
+          <t>('0:00:17.860000', '0:00:28.300000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:04.511043', '0:00:10.664331')]</t>
+          <t>('0:00:06.800000', '0:00:12.660000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=71.4']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-169#t=17.86</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-242#t=4.511043']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=6.8</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>spotify:track:5SUlhldQJtOhUr2GzH5RI7</t>
-        </is>
-      </c>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_127</t>
+          <t>schubert-winterreise_203</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_172</t>
+          <t>schubert-winterreise_124</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D']]</t>
+          <t>['A:hdim7/D#', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
+          <t>['G:hdim7/A#', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:01.014823', '0:00:12.241493')]</t>
+          <t>('0:01:38.020000', '0:01:50.760000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:52.740000', '0:01:00.860000')]</t>
+          <t>('0:00:24.980000', '0:00:31.820000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-127#t=1.014823']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=98.02</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-172#t=52.74']</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-124#t=24.98</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>jaah_62</t>
+          <t>schubert-winterreise_117</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_159</t>
+          <t>schubert-winterreise_193</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['G:7', 'G:min7', 'C:7']]</t>
+          <t>['G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['B:7', 'B:min7/4', 'E:7']]</t>
+          <t>['C/G', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:08.710000', '0:00:11.850000')]</t>
+          <t>('0:00:07.160000', '0:00:15.080000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:46.509000', '0:00:49.121000')]</t>
+          <t>('0:04:11.500000', '0:04:17.660000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-62#t=8.71']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-117#t=7.16</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-159#t=46.509']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-193#t=251.5</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_31</t>
+          <t>isophonics_216</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
+          <t>jaah_3</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>['A', 'D', 'A']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>['Eb', 'Ab', 'Eb']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:30.020000', '0:00:44.280000')]</t>
+          <t>('0:00:28.009637', '0:00:33.826235')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:01:41.060000', '0:01:42.380000')]</t>
+          <t>('0:02:16.070000', '0:02:21.510000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-31#t=30.02']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-216#t=28.009637</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=101.06']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-3#t=136.07</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_134</t>
+          <t>jaah_72</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_277</t>
+          <t>schubert-winterreise_96</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:maj/G', 'F:maj/A'], ['C:maj/G', 'F:maj', 'C:maj/G']]</t>
+          <t>['Eb', 'Bb:7', 'Eb', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'A'], ['E', 'A', 'E']]</t>
+          <t>['F:maj/C', 'C:7', 'F:maj', 'F:7', 'A#:maj']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:02:25.040000', '0:02:27.860000'), ('0:02:22.140000', '0:02:26.800000')]</t>
+          <t>('0:00:08.700000', '0:00:37.670000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:31.840929', '0:00:37.216349'), ('0:00:32.920657', '0:00:39.410634')]</t>
+          <t>('0:01:08.040000', '0:01:24.540000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-134#t=145.04', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-134#t=142.14']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-72#t=8.7</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-277#t=31.840929', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-277#t=32.920657']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-96#t=68.04</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>spotify:track:2RnPATK99oGOZygnD2GTO6</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_296</t>
+          <t>schubert-winterreise_40</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_209</t>
+          <t>schubert-winterreise_0</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj', 'G/3']]</t>
+          <t>['D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
+          <t>['B:min', 'F#:maj', 'B:min']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:05.146000', '0:00:09.474000')]</t>
+          <t>('0:01:28.760000', '0:01:38.300000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:02:18.800000', '0:02:24.460000')]</t>
+          <t>('0:00:12.140000', '0:00:20.020000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-296#t=5.146']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-40#t=88.76</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-209#t=138.8']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-0#t=12.14</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
+          <t>schubert-winterreise_124</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_19</t>
+          <t>schubert-winterreise_150</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7', 'G:min']]</t>
+          <t>['C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
+          <t>['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:03.100000', '0:00:07.720000')]</t>
+          <t>('0:00:49.480000', '0:01:02.360000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:00.360000', '0:00:05')]</t>
+          <t>('0:00:00.780000', '0:00:09.740000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-82#t=3.1']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-124#t=49.48</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-19#t=0.36']</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-150#t=0.78</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_78</t>
+          <t>isophonics_45</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>jaah_3</t>
+          <t>isophonics_0</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['F/3', 'Bb', 'C:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['Eb', 'Ab', 'Eb']]</t>
+          <t>['Db', 'Gb', 'Ab', 'Db']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:01:00.760000', '0:01:04.360000')]</t>
+          <t>('0:01:03.461000', '0:01:06.732000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:02:16.070000', '0:02:21.510000')]</t>
+          <t>('0:00:00.344657', '0:00:16.004920')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-78#t=60.76']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-45#t=63.461</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-3#t=136.07']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-0#t=0.344657</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_63</t>
+          <t>isophonics_138</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_42</t>
+          <t>schubert-winterreise_179</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['C:min', 'F:7/C', 'A#']]</t>
+          <t>['C:min', 'G:7', 'C:min']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['C:min', 'F:7', 'Bb']]</t>
+          <t>['D:min/A', 'A:7', 'D:min']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:40.440000', '0:00:43.320000')]</t>
+          <t>('0:00:01.129708', '0:00:06.125260')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:01:36.241000', '0:01:41.882000')]</t>
+          <t>('0:02:11.200000', '0:02:16.340000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-63#t=40.44']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-138#t=1.129708</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-42#t=96.241']</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-179#t=131.2</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
+        </is>
+      </c>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_126</t>
+          <t>schubert-winterreise_96</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_160</t>
+          <t>isophonics_72</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min'], ['D:maj/F#', 'G:maj', 'D:maj']]</t>
+          <t>['F:maj', 'C:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min'], ['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['D', 'A', 'D']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:01:27.660000', '0:01:36.720000'), ('0:00:58.080000', '0:01:05.660000')]</t>
+          <t>('0:00:00.740000', '0:00:21.500000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:10.820000', '0:00:17.080000'), ('0:01:20.420000', '0:01:24.640000')]</t>
+          <t>('0:00:32.074829', '0:00:37.705668')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-126#t=87.66', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-126#t=58.08']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-96#t=0.74</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-160#t=10.82', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-160#t=80.42']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-72#t=32.074829</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:5dpRJkvY8oWMQmQbEQTXhO</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
